--- a/excel-sheets/updated-arm-study-data.xlsx
+++ b/excel-sheets/updated-arm-study-data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,239 +433,3970 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q53</t>
+          <t>1_competency/discomfor_1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1_PS1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>75000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>125</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1200</v>
+          <t>1_competency/discomfor_2</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2_PS1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>250</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1500</v>
+          <t>1_competency/discomfor_3</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3_PS1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
+          <t>1_competency/discomfor_4</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4_PS1</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>70000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1500</v>
+          <t>1_competency/discomfor_5</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5_PS1</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1500</v>
+          <t>1_competency/discomfor_6</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6_PS1</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="n">
-        <v>175</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1700</v>
+          <t>1_competency/discomfor_7</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7_PS1</t>
+          <t>1_competency/discomfor_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60000</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2000</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8_PS1</t>
+          <t>1_competency/discomfor_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60000</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9_PS1</t>
+          <t>1_competency/discomfor_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30000</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1_Safety_1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1_Safety_2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1_Safety_3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2_Safety_1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2_Safety_2</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2_Safety_3</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3_Safety_1</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3_Safety_2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3_Safety_3</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4_Safety_1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4_Safety_2</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4_Safety_3</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>9</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>9</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>9</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>9</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>9</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>9</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>5_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>5_Safety_1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>5_Safety_2</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>5_Safety_3</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>9</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>9</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>9</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>9</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>9</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>6</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>6_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>6_Safety_1</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>6_Safety_2</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>6_Safety_3</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>9</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>9</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>9</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>9</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>9</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>9</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7_Safety_1</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>7_Safety_2</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>7_Safety_3</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>9</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>9</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>9</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>9</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>9</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>9</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>9</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>8_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>9</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>8_Safety_1</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>8_Safety_2</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>8_Safety_3</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_1</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>9</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_2</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>9</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_3</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>9</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_4</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>9</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_5</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>9</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_6</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>9</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_7</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>9</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_8</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>9</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_9</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_10</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>9</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_11</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>9</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_12</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4</v>
+      </c>
+      <c r="E181" t="n">
+        <v>9</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_13</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_14</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_15</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_16</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_17</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>9_competency/discomfor_18</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>9_Safety_1</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>9_Safety_2</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>9_Safety_3</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel-sheets/updated-arm-study-data.xlsx
+++ b/excel-sheets/updated-arm-study-data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,25 @@
           <t>1_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -449,10 +464,25 @@
           <t>1_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -462,10 +492,25 @@
           <t>1_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -475,11 +520,26 @@
           <t>1_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +548,25 @@
           <t>1_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -501,10 +576,25 @@
           <t>1_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,11 +604,26 @@
           <t>1_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
       <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -528,22 +633,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -553,22 +661,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -578,22 +689,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +717,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -618,7 +732,10 @@
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -628,22 +745,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -653,21 +773,24 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,10 +801,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -690,9 +813,12 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -703,21 +829,24 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -731,18 +860,21 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -753,21 +885,24 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,18 +916,21 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,22 +941,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +975,19 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -856,19 +1000,22 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -877,10 +1024,25 @@
           <t>2_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -890,10 +1052,25 @@
           <t>2_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,11 +1080,26 @@
           <t>2_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -916,11 +1108,26 @@
           <t>2_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -929,10 +1136,25 @@
           <t>2_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,10 +1164,25 @@
           <t>2_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,11 +1192,26 @@
           <t>2_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -969,22 +1221,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -994,22 +1249,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1019,22 +1277,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1044,10 +1305,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>7</v>
@@ -1056,10 +1317,13 @@
         <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1069,22 +1333,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1094,21 +1361,24 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,21 +1389,24 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,21 +1417,24 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,21 +1445,24 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,21 +1473,24 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,21 +1501,24 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,22 +1529,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1269,22 +1557,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1294,22 +1585,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1318,10 +1612,25 @@
           <t>3_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1331,11 +1640,26 @@
           <t>3_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1344,11 +1668,26 @@
           <t>3_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1357,11 +1696,26 @@
           <t>3_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1370,11 +1724,26 @@
           <t>3_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
       <c r="F48" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1383,11 +1752,26 @@
           <t>3_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1396,11 +1780,26 @@
           <t>3_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1410,22 +1809,25 @@
         </is>
       </c>
       <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
         <v>8</v>
       </c>
-      <c r="C51" t="n">
-        <v>4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
-      </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1435,22 +1837,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1460,22 +1865,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1485,22 +1893,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1510,22 +1921,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1535,21 +1949,24 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1560,10 +1977,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
@@ -1572,10 +1989,13 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -1585,21 +2005,24 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1613,18 +2036,21 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1635,21 +2061,24 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,15 +2095,18 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1685,22 +2117,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
         <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1713,19 +2148,22 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1735,22 +2173,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1759,10 +2200,25 @@
           <t>4_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,11 +2228,26 @@
           <t>4_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1785,11 +2256,26 @@
           <t>4_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -1798,11 +2284,26 @@
           <t>4_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1811,10 +2312,25 @@
           <t>4_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
       <c r="F69" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,10 +2340,25 @@
           <t>4_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1837,11 +2368,26 @@
           <t>4_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
       <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7</v>
+      </c>
+      <c r="H71" t="n">
         <v>9</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1851,22 +2397,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1876,22 +2425,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1901,22 +2453,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -1926,22 +2481,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -1951,22 +2509,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1979,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1988,9 +2549,12 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2001,21 +2565,24 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
         <v>9</v>
       </c>
-      <c r="D78" t="n">
-        <v>7</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6</v>
-      </c>
       <c r="F78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,21 +2593,24 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
       </c>
       <c r="G79" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,21 +2621,24 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,21 +2649,24 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2107,15 +2683,18 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,19 +2708,22 @@
         <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2151,22 +2733,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2179,19 +2764,22 @@
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>5</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2200,11 +2788,26 @@
           <t>5_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2213,11 +2816,26 @@
           <t>5_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
       <c r="F87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -2226,11 +2844,26 @@
           <t>5_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
       <c r="F88" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2239,11 +2872,26 @@
           <t>5_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
       <c r="F89" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -2252,11 +2900,26 @@
           <t>5_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9</v>
+      </c>
       <c r="F90" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2265,11 +2928,26 @@
           <t>5_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
       <c r="F91" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2278,11 +2956,26 @@
           <t>5_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
       <c r="F92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2292,22 +2985,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -2317,22 +3013,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2342,22 +3041,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
         <v>9</v>
       </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6</v>
-      </c>
       <c r="F95" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2367,21 +3069,24 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,21 +3097,24 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,10 +3125,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2429,10 +3137,13 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -2442,21 +3153,24 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
         <v>9</v>
       </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2</v>
-      </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,19 +3184,22 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -2492,22 +3209,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -2517,21 +3237,24 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2542,22 +3265,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2567,22 +3293,25 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -2592,22 +3321,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -2617,22 +3349,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
         <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -2641,10 +3376,25 @@
           <t>6_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
       <c r="F107" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,10 +3404,25 @@
           <t>6_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
       <c r="F108" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2667,10 +3432,25 @@
           <t>6_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
       <c r="F109" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,11 +3460,26 @@
           <t>6_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
       <c r="F110" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -2693,10 +3488,25 @@
           <t>6_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5</v>
+      </c>
       <c r="F111" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,10 +3516,25 @@
           <t>6_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
       <c r="F112" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2719,11 +3544,26 @@
           <t>6_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9</v>
+      </c>
       <c r="F113" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2733,22 +3573,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2758,22 +3601,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2783,22 +3629,25 @@
         </is>
       </c>
       <c r="B116" t="n">
+        <v>3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="n">
         <v>9</v>
       </c>
-      <c r="C116" t="n">
-        <v>6</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3</v>
-      </c>
       <c r="F116" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -2808,22 +3657,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -2836,19 +3688,22 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2858,21 +3713,24 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,21 +3741,24 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
         <v>9</v>
       </c>
-      <c r="D120" t="n">
-        <v>6</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6</v>
-      </c>
       <c r="F120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2911,18 +3772,21 @@
         <v>7</v>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G121" t="n">
+        <v>6</v>
+      </c>
+      <c r="H121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,21 +3797,24 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,21 +3825,24 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,21 +3853,24 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3008,22 +3881,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -3036,19 +3912,22 @@
         <v>2</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3058,13 +3937,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
@@ -3073,6 +3952,9 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,10 +3964,25 @@
           <t>7_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
       <c r="F128" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3095,10 +3992,25 @@
           <t>7_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5</v>
+      </c>
       <c r="F129" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,10 +4020,25 @@
           <t>7_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
       <c r="F130" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3121,10 +4048,25 @@
           <t>7_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5</v>
+      </c>
       <c r="F131" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,10 +4076,25 @@
           <t>7_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9</v>
+      </c>
       <c r="F132" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,10 +4104,25 @@
           <t>7_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5</v>
+      </c>
       <c r="F133" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,11 +4132,26 @@
           <t>7_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9</v>
+      </c>
       <c r="F134" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -3174,22 +4161,25 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135" t="n">
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F135" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -3199,22 +4189,25 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -3224,22 +4217,25 @@
         </is>
       </c>
       <c r="B137" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7</v>
+      </c>
+      <c r="E137" t="n">
         <v>9</v>
       </c>
-      <c r="C137" t="n">
-        <v>6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>7</v>
-      </c>
       <c r="F137" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="138">
@@ -3249,22 +4245,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E138" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="139">
@@ -3274,22 +4273,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="140">
@@ -3299,21 +4301,24 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,15 +4335,18 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3349,21 +4357,24 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,21 +4385,24 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,21 +4413,24 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,21 +4441,24 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,22 +4469,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3474,22 +4497,25 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -3499,22 +4525,25 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E148" t="n">
         <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3523,10 +4552,25 @@
           <t>8_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B149" t="n">
+        <v>5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5</v>
+      </c>
       <c r="F149" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,10 +4580,25 @@
           <t>8_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B150" t="n">
+        <v>5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5</v>
+      </c>
       <c r="F150" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3549,10 +4608,25 @@
           <t>8_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5</v>
+      </c>
       <c r="F151" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,10 +4636,25 @@
           <t>8_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B152" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5</v>
+      </c>
       <c r="F152" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3575,10 +4664,25 @@
           <t>8_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B153" t="n">
+        <v>5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9</v>
+      </c>
       <c r="F153" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G153" t="n">
+        <v>5</v>
+      </c>
+      <c r="H153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3588,10 +4692,25 @@
           <t>8_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5</v>
+      </c>
       <c r="F154" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,11 +4720,26 @@
           <t>8_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B155" t="n">
+        <v>8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9</v>
+      </c>
       <c r="F155" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3615,22 +4749,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -3640,22 +4777,25 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F157" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -3668,19 +4808,22 @@
         <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E158" t="n">
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3690,22 +4833,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>6</v>
       </c>
       <c r="E159" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -3715,21 +4861,24 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E160" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F160" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,21 +4889,24 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3765,21 +4917,24 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,21 +4945,24 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,21 +4973,24 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,21 +5001,24 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,21 +5029,24 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3893,19 +5060,22 @@
         <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
         <v>3</v>
       </c>
       <c r="E167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -3915,7 +5085,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -3924,13 +5094,16 @@
         <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -3940,22 +5113,25 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -3964,10 +5140,25 @@
           <t>9_competency/discomfor_1</t>
         </is>
       </c>
+      <c r="B170" t="n">
+        <v>5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5</v>
+      </c>
       <c r="F170" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3977,10 +5168,25 @@
           <t>9_competency/discomfor_2</t>
         </is>
       </c>
+      <c r="B171" t="n">
+        <v>5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
+      </c>
       <c r="F171" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,10 +5196,25 @@
           <t>9_competency/discomfor_3</t>
         </is>
       </c>
+      <c r="B172" t="n">
+        <v>5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
       <c r="F172" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,10 +5224,25 @@
           <t>9_competency/discomfor_4</t>
         </is>
       </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5</v>
+      </c>
       <c r="F173" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,10 +5252,25 @@
           <t>9_competency/discomfor_5</t>
         </is>
       </c>
+      <c r="B174" t="n">
+        <v>5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>9</v>
+      </c>
       <c r="F174" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4029,10 +5280,25 @@
           <t>9_competency/discomfor_6</t>
         </is>
       </c>
+      <c r="B175" t="n">
+        <v>5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5</v>
+      </c>
       <c r="F175" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4042,11 +5308,26 @@
           <t>9_competency/discomfor_7</t>
         </is>
       </c>
+      <c r="B176" t="n">
+        <v>5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9</v>
+      </c>
       <c r="F176" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="177">
@@ -4056,22 +5337,25 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F177" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -4081,22 +5365,25 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F178" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -4106,22 +5393,25 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
         <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E179" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -4131,22 +5421,25 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7</v>
+      </c>
+      <c r="G180" t="n">
         <v>8</v>
       </c>
-      <c r="F180" t="n">
-        <v>9</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1</v>
+      <c r="H180" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="181">
@@ -4156,22 +5449,25 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F181" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="182">
@@ -4184,18 +5480,21 @@
         <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,21 +5505,24 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,21 +5533,24 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F184" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,21 +5561,24 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,21 +5589,24 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,21 +5617,24 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,22 +5645,25 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F188" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -4356,22 +5673,25 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F189" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -4387,16 +5707,19 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel-sheets/updated-arm-study-data.xlsx
+++ b/excel-sheets/updated-arm-study-data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,22 +440,31 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -468,22 +477,31 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -496,22 +514,31 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -521,25 +548,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -552,22 +588,31 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -589,13 +634,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -605,25 +659,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +699,31 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -664,22 +736,31 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -689,25 +770,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -717,24 +807,33 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -748,22 +847,31 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -776,21 +884,30 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,25 +918,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -829,25 +955,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -857,24 +992,33 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -885,24 +1029,33 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -913,25 +1066,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -944,21 +1106,30 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
       </c>
       <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -969,25 +1140,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -997,24 +1177,33 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1028,22 +1217,31 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1053,16 +1251,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
@@ -1071,7 +1269,16 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1081,25 +1288,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1109,25 +1325,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1137,25 +1362,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1165,25 +1399,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1193,25 +1436,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1221,25 +1473,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1252,22 +1513,31 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1283,19 +1553,28 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1305,25 +1584,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1333,25 +1621,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1364,21 +1661,30 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,22 +1698,31 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
         <v>9</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6</v>
-      </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1417,25 +1732,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1445,25 +1769,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1473,25 +1806,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1504,22 +1846,31 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1529,25 +1880,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1557,25 +1917,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1585,24 +1954,33 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1613,25 +1991,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1641,25 +2028,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1669,25 +2065,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1697,25 +2102,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1725,24 +2139,33 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1753,25 +2176,34 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1781,25 +2213,34 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -1812,22 +2253,31 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1840,22 +2290,31 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1865,25 +2324,34 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
         <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1893,25 +2361,34 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1924,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>5</v>
@@ -1933,13 +2410,22 @@
         <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1952,21 +2438,30 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,22 +2475,31 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2005,24 +2509,33 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2033,24 +2546,33 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,24 +2583,33 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5</v>
+      </c>
+      <c r="K60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2089,24 +2620,33 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2120,22 +2660,31 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2145,25 +2694,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2176,21 +2734,30 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2201,25 +2768,34 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2229,25 +2805,34 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2257,25 +2842,34 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2285,16 +2879,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -2303,7 +2897,16 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -2313,25 +2916,34 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2341,16 +2953,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -2359,7 +2971,16 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2369,25 +2990,34 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -2397,25 +3027,34 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -2425,25 +3064,34 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -2453,25 +3101,34 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -2481,25 +3138,34 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -2509,10 +3175,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
@@ -2521,13 +3187,22 @@
         <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -2540,21 +3215,30 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,24 +3249,33 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2593,25 +3286,34 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2621,24 +3323,33 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,24 +3360,33 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,21 +3400,30 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,25 +3434,34 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -2733,24 +3471,33 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2761,24 +3508,33 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2795,19 +3551,28 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -2820,22 +3585,31 @@
         <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2848,22 +3622,31 @@
         <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -2873,25 +3656,34 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -2904,21 +3696,30 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>6</v>
+      </c>
+      <c r="K90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2932,22 +3733,31 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -2957,25 +3767,34 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>7</v>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H92" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2988,22 +3807,31 @@
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>8</v>
       </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -3016,22 +3844,31 @@
         <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>7</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -3041,25 +3878,34 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -3069,25 +3915,34 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4</v>
+      </c>
+      <c r="K96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -3100,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
         <v>5</v>
@@ -3112,10 +3967,19 @@
         <v>5</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4</v>
+      </c>
+      <c r="K97" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -3125,25 +3989,34 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3153,24 +4026,33 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,25 +4063,34 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3209,25 +4100,34 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -3237,24 +4137,33 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,25 +4174,34 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3293,10 +4211,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
@@ -3305,13 +4223,22 @@
         <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -3321,13 +4248,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -3339,7 +4266,16 @@
         <v>2</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -3349,25 +4285,34 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -3377,25 +4322,34 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -3405,25 +4359,34 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -3433,25 +4396,34 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -3461,25 +4433,34 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -3489,25 +4470,34 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -3517,25 +4507,34 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -3545,25 +4544,34 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113" t="n">
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4</v>
+      </c>
+      <c r="K113" t="n">
         <v>9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4</v>
-      </c>
-      <c r="G113" t="n">
-        <v>5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -3576,22 +4584,31 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -3604,22 +4621,31 @@
         <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -3629,25 +4655,34 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C116" t="n">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="n">
         <v>9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="n">
-        <v>5</v>
-      </c>
-      <c r="H116" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -3657,25 +4692,34 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -3685,24 +4729,33 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
         <v>5</v>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5</v>
+      </c>
+      <c r="K118" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3716,21 +4769,30 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,21 +4806,30 @@
         <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3769,24 +4840,33 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7</v>
+      </c>
+      <c r="J121" t="n">
+        <v>7</v>
+      </c>
+      <c r="K121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,24 +4877,33 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3</v>
+      </c>
+      <c r="K122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,24 +4914,33 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5</v>
+      </c>
+      <c r="K123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,21 +4954,30 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
+        <v>2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3</v>
+      </c>
+      <c r="K124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,24 +4988,33 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
         <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
+        <v>5</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3</v>
+      </c>
+      <c r="K125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3909,24 +5025,33 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3937,25 +5062,34 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3968,22 +5102,31 @@
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -3993,25 +5136,34 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -4021,25 +5173,34 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -4049,25 +5210,34 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -4077,25 +5247,34 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F132" t="n">
         <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -4105,25 +5284,34 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -4133,7 +5321,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="n">
         <v>6</v>
@@ -4142,16 +5330,25 @@
         <v>8</v>
       </c>
       <c r="E134" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G134" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H134" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>7</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3</v>
+      </c>
+      <c r="K134" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -4161,25 +5358,34 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F135" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H135" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3</v>
+      </c>
+      <c r="K135" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -4189,25 +5395,34 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
       </c>
       <c r="H136" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3</v>
+      </c>
+      <c r="K136" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -4220,22 +5435,31 @@
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -4248,22 +5472,31 @@
         <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G138" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -4273,10 +5506,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D139" t="n">
         <v>5</v>
@@ -4285,13 +5518,22 @@
         <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="140">
@@ -4301,24 +5543,33 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4329,24 +5580,33 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
       </c>
       <c r="E141" t="n">
+        <v>6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6</v>
+      </c>
+      <c r="G141" t="n">
         <v>9</v>
       </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
       <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4357,24 +5617,33 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J142" t="n">
+        <v>6</v>
+      </c>
+      <c r="K142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,24 +5654,33 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4</v>
+      </c>
+      <c r="K143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4413,24 +5691,33 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>6</v>
+      </c>
+      <c r="K144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,24 +5728,33 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4</v>
+      </c>
+      <c r="K145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4469,25 +5765,34 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -4497,25 +5802,34 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4525,24 +5839,33 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4</v>
+      </c>
+      <c r="K148" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4556,22 +5879,31 @@
         <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -4584,22 +5916,31 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5</v>
+      </c>
+      <c r="K150" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -4612,22 +5953,31 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -4637,25 +5987,34 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4</v>
+      </c>
+      <c r="K152" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -4668,22 +6027,31 @@
         <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -4696,22 +6064,31 @@
         <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6</v>
+      </c>
+      <c r="K154" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -4721,25 +6098,34 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="n">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E155" t="n">
+        <v>7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>7</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6</v>
+      </c>
+      <c r="K155" t="n">
         <v>9</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6</v>
-      </c>
-      <c r="G155" t="n">
-        <v>6</v>
-      </c>
-      <c r="H155" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -4752,22 +6138,31 @@
         <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F156" t="n">
         <v>7</v>
       </c>
       <c r="G156" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H156" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7</v>
+      </c>
+      <c r="J156" t="n">
+        <v>6</v>
+      </c>
+      <c r="K156" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="157">
@@ -4783,19 +6178,28 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F157" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G157" t="n">
         <v>6</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>7</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -4805,25 +6209,34 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E158" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H158" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I158" t="n">
+        <v>7</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6</v>
+      </c>
+      <c r="K158" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -4833,25 +6246,34 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F159" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
       </c>
       <c r="H159" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>7</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -4864,22 +6286,31 @@
         <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D160" t="n">
         <v>5</v>
       </c>
       <c r="E160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>6</v>
+      </c>
+      <c r="K160" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -4889,24 +6320,33 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4</v>
+      </c>
+      <c r="K161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4917,24 +6357,33 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,24 +6394,33 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>7</v>
+      </c>
+      <c r="J163" t="n">
+        <v>6</v>
+      </c>
+      <c r="K163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,24 +6431,33 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H164" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>4</v>
+      </c>
+      <c r="K164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,24 +6468,33 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H165" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4</v>
+      </c>
+      <c r="K165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,24 +6505,33 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4</v>
+      </c>
+      <c r="K166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,13 +6542,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -5072,10 +6557,19 @@
         <v>3</v>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3</v>
+      </c>
+      <c r="K167" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="168">
@@ -5085,13 +6579,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -5100,10 +6594,19 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -5113,25 +6616,34 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5141,25 +6653,34 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="171">
@@ -5172,22 +6693,31 @@
         <v>5</v>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -5200,22 +6730,31 @@
         <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3</v>
+      </c>
+      <c r="K172" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -5225,25 +6764,34 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3</v>
+      </c>
+      <c r="K173" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -5256,22 +6804,31 @@
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3</v>
+      </c>
+      <c r="K174" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="175">
@@ -5284,22 +6841,31 @@
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -5312,22 +6878,31 @@
         <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F176" t="n">
         <v>7</v>
       </c>
       <c r="G176" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H176" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J176" t="n">
+        <v>5</v>
+      </c>
+      <c r="K176" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -5340,22 +6915,31 @@
         <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F177" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G177" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J177" t="n">
+        <v>5</v>
+      </c>
+      <c r="K177" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -5368,22 +6952,31 @@
         <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E178" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F178" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H178" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J178" t="n">
+        <v>4</v>
+      </c>
+      <c r="K178" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -5396,22 +6989,31 @@
         <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E179" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F179" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G179" t="n">
         <v>7</v>
       </c>
       <c r="H179" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I179" t="n">
+        <v>7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>5</v>
+      </c>
+      <c r="K179" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -5427,19 +7029,28 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F180" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G180" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H180" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I180" t="n">
+        <v>7</v>
+      </c>
+      <c r="J180" t="n">
+        <v>5</v>
+      </c>
+      <c r="K180" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -5452,22 +7063,31 @@
         <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D181" t="n">
         <v>5</v>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G181" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5</v>
+      </c>
+      <c r="K181" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -5477,24 +7097,33 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H182" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>4</v>
+      </c>
+      <c r="K182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,24 +7134,33 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F183" t="n">
         <v>6</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>6</v>
+      </c>
+      <c r="K183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,24 +7171,33 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H184" t="n">
+        <v>2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>7</v>
+      </c>
+      <c r="J184" t="n">
+        <v>6</v>
+      </c>
+      <c r="K184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,24 +7208,33 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H185" t="n">
+        <v>2</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5589,24 +7245,33 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H186" t="n">
+        <v>2</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>4</v>
+      </c>
+      <c r="K186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5617,24 +7282,33 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>4</v>
+      </c>
+      <c r="K187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,25 +7319,34 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
       </c>
       <c r="F188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3</v>
+      </c>
+      <c r="K188" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -5673,25 +7356,34 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>2</v>
       </c>
       <c r="F189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5701,24 +7393,33 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F190" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3</v>
+      </c>
+      <c r="K190" t="n">
         <v>2</v>
       </c>
     </row>
